--- a/zuluspreadsheet_example/zuluspreadsheet_test.xlsx
+++ b/zuluspreadsheet_example/zuluspreadsheet_test.xlsx
@@ -9,13 +9,18 @@
   <sheets>
     <sheet name="SheetA" sheetId="1" r:id="rId1"/>
     <sheet name="SheetQuery" sheetId="3" r:id="rId2"/>
+    <sheet name="Named Cells" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="NamedCellA">'Named Cells'!$B$2</definedName>
+    <definedName name="NamedCellB">'Named Cells'!$B$4</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
   <si>
     <t>TABLE</t>
   </si>
@@ -180,6 +185,12 @@
   </si>
   <si>
     <t>Birth</t>
+  </si>
+  <si>
+    <t>This is: NamedCellA</t>
+  </si>
+  <si>
+    <t>This is: NamedCellB</t>
   </si>
 </sst>
 </file>
@@ -647,7 +658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25"/>
   <cols>
@@ -1101,4 +1114,29 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/zuluspreadsheet_example/zuluspreadsheet_test.xlsx
+++ b/zuluspreadsheet_example/zuluspreadsheet_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>TABLE</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>This is: NamedCellB</t>
+  </si>
+  <si>
+    <t>Only HTTP is allowed</t>
+  </si>
+  <si>
+    <t>https://github.com/xy</t>
+  </si>
+  <si>
+    <t>https://www.nuget.org/rs</t>
+  </si>
+  <si>
+    <t>http://www.url.ch/uv</t>
+  </si>
+  <si>
+    <t>OnlyHttpsUri</t>
   </si>
 </sst>
 </file>
@@ -202,7 +217,7 @@
     <numFmt numFmtId="165" formatCode="[$SFr.-807]&quot; &quot;#,##0.00;[Red][$SFr.-807]&quot; -&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +255,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -297,7 +319,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment vertical="top" wrapText="1"/>
@@ -313,8 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -346,12 +369,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Datatable-Left" xfId="1"/>
     <cellStyle name="Datatable-Top" xfId="2"/>
     <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Result" xfId="5"/>
     <cellStyle name="Result2" xfId="6"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -659,7 +686,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="14.25"/>
@@ -671,7 +698,7 @@
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="2" customWidth="1"/>
     <col min="10" max="1024" width="1.875" style="2" customWidth="1"/>
     <col min="1025" max="16384" width="11.25" style="2"/>
@@ -831,6 +858,11 @@
         <v>1010</v>
       </c>
     </row>
+    <row r="11" spans="1:8">
+      <c r="H11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>0</v>
@@ -852,6 +884,9 @@
       </c>
       <c r="G12" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -874,6 +909,9 @@
       <c r="G13" s="10">
         <v>28533.541655092598</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
@@ -895,6 +933,9 @@
       <c r="G14" s="10">
         <v>22689.598784722199</v>
       </c>
+      <c r="H14" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
@@ -916,6 +957,9 @@
       <c r="G15" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
@@ -937,10 +981,18 @@
       <c r="G16" s="10">
         <v>33646.043090277803</v>
       </c>
+      <c r="H16" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1"/>
+    <hyperlink ref="H14" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
